--- a/data/trans_bre/P16B13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,11; 4,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,45; 9,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,28; 4,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 10,17</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; 11,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 22,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,11; 16,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,04; 12,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 30,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 20,65</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 41,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; 35,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 75,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,5; 49,52</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,96; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 12,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 10,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 6,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 14,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 12,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B13-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B13-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,57</t>
+          <t>-7,67; 3,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,55</t>
+          <t>0,0; 7,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,11</t>
+          <t>-3,45; 10,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 4,81</t>
+          <t>-7,69; 4,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,17</t>
+          <t>0,0; 8,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 10,17</t>
+          <t>-3,46; 11,7</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 11,83</t>
+          <t>-11,76; 12,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 22,29</t>
+          <t>1,11; 23,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 16,38</t>
+          <t>-3,9; 17,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 12,49</t>
+          <t>-11,96; 12,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 30,26</t>
+          <t>1,16; 30,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 20,65</t>
+          <t>-4,07; 21,13</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,97</t>
+          <t>0,0; 36,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 41,45</t>
+          <t>-4,22; 43,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 35,46</t>
+          <t>-10,25; 33,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,64</t>
+          <t>0,0; 58,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 75,74</t>
+          <t>-4,28; 73,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 49,52</t>
+          <t>-10,3; 50,93</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 6,07</t>
+          <t>-6,12; 5,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,5</t>
+          <t>2,12; 12,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 10,86</t>
+          <t>-2,35; 10,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,52</t>
+          <t>-6,2; 6,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 14,53</t>
+          <t>2,21; 14,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 12,49</t>
+          <t>-2,4; 12,37</t>
         </is>
       </c>
     </row>
